--- a/EDA_Entrega/data/correlation_age_gender.xlsx
+++ b/EDA_Entrega/data/correlation_age_gender.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -478,17 +483,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6707084000657898</v>
+        <v>-0.679419991675803</v>
       </c>
       <c r="E2" t="n">
-        <v>-18871786.21945702</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1562716557.917911</v>
+        <v>-18947507.2900659</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1637828761.012936</v>
       </c>
     </row>
     <row r="3">
@@ -504,17 +512,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6707083967498435</v>
+        <v>-0.6794199885061901</v>
       </c>
       <c r="E3" t="n">
-        <v>-18871.78632047102</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1562716.546537549</v>
+        <v>-18947.50730164551</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1637828.746306644</v>
       </c>
     </row>
     <row r="4">
@@ -530,17 +541,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.06442097340458217</v>
+        <v>-0.1000327525585791</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.165921150987842</v>
+        <v>1.303311592828876e-102</v>
       </c>
       <c r="F4" t="n">
-        <v>280.5122795106349</v>
+        <v>-0.5867235117932564</v>
+      </c>
+      <c r="G4" t="n">
+        <v>241.9752983812028</v>
       </c>
     </row>
     <row r="5">
@@ -556,17 +570,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1097650418965042</v>
+        <v>0.03263389335899931</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006168975893053338</v>
+        <v>5.865019959918635e-11</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01120083162373337</v>
+        <v>0.0002017539088225464</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03961525812658406</v>
       </c>
     </row>
     <row r="6">
@@ -582,17 +599,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1089838417042573</v>
+        <v>0.03937541335975089</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0018985496402185</v>
+        <v>2.758033474961411e-15</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08560413755546517</v>
+        <v>0.0006426251644041009</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1685800244224691</v>
       </c>
     </row>
     <row r="7">
@@ -608,17 +628,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.06877366291256092</v>
+        <v>-0.1389351147995459</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.002138407715268519</v>
+        <v>4.641972130248959e-177</v>
       </c>
       <c r="F7" t="n">
-        <v>4.086446463465653</v>
+        <v>-0.004545250093905787</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.266747453810043</v>
       </c>
     </row>
     <row r="8">
@@ -634,17 +657,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.02738035740404215</v>
+        <v>-0.02889513834802768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07751695558190687</v>
+        <v>4.327250466728002e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>75.5884801702625</v>
+        <v>-0.08465967129685588</v>
+      </c>
+      <c r="G8" t="n">
+        <v>86.78738060283095</v>
       </c>
     </row>
     <row r="9">
@@ -660,17 +686,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1740738957755183</v>
+        <v>-0.2011856176796754</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2553833829802283</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>37.80719695925406</v>
+        <v>-0.2914269387476205</v>
+      </c>
+      <c r="G9" t="n">
+        <v>41.73129802460095</v>
       </c>
     </row>
     <row r="10">
@@ -686,17 +715,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.05658811496614839</v>
+        <v>-0.02243992944166697</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.005861466259090588</v>
+        <v>6.738013485588446e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>2.439318538343115</v>
+        <v>-0.005401529248052626</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.428330146212847</v>
       </c>
     </row>
     <row r="11">
@@ -712,17 +744,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.173884108107348</v>
+        <v>0.07449054124931466</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003507193144994335</v>
+        <v>1.283563643399342e-50</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3311089265617063</v>
+        <v>0.001667420775341308</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4533806361899144</v>
       </c>
     </row>
     <row r="12">
@@ -738,17 +773,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.1005017472375335</v>
+        <v>0.008654383972165542</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01490993483738298</v>
+        <v>0.08259105480241899</v>
       </c>
       <c r="F12" t="n">
-        <v>2.98194799395441</v>
+        <v>0.001326474206464006</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.857286296357643</v>
       </c>
     </row>
     <row r="13">
@@ -764,17 +802,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.1218591761741263</v>
+        <v>-0.08254249494788445</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1919422565964528</v>
+        <v>8.370504289333744e-63</v>
       </c>
       <c r="F13" t="n">
-        <v>35.56484536891104</v>
+        <v>-0.1207286987762577</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.40782955839838</v>
       </c>
     </row>
     <row r="14">
@@ -790,17 +831,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.04796926928812384</v>
+        <v>0.04406745162645954</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002763175180412088</v>
+        <v>9.324602485079095e-19</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6803157745553061</v>
+        <v>0.00287755061027454</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6776772339471687</v>
       </c>
     </row>
     <row r="15">
@@ -816,17 +860,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.05302968750828347</v>
+        <v>0.07479203690472501</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001444186605867878</v>
+        <v>3.53006589951797e-52</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3761211365716496</v>
+        <v>0.002046382328389685</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3312230821490951</v>
       </c>
     </row>
     <row r="16">
@@ -842,17 +889,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2688005413726874</v>
+        <v>0.2401908871346741</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1616805080613333</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.467987919343676</v>
+        <v>0.165754009028603</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.990295705310301</v>
       </c>
     </row>
     <row r="17">
@@ -868,17 +918,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01785107904355374</v>
+        <v>-0.0001615112942509979</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0006702149797603031</v>
+        <v>0.9738330336762751</v>
       </c>
       <c r="F17" t="n">
-        <v>9.271555141797513</v>
+        <v>-6.398178735937142e-06</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.293958391714726</v>
       </c>
     </row>
     <row r="18">
@@ -894,17 +947,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1229044764834279</v>
+        <v>-0.1241482672758274</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4788215912279427</v>
+        <v>1.760545867944229e-141</v>
       </c>
       <c r="F18" t="n">
-        <v>220.9518705295582</v>
+        <v>-0.5165541098888042</v>
+      </c>
+      <c r="G18" t="n">
+        <v>223.1944484262807</v>
       </c>
     </row>
     <row r="19">
@@ -920,17 +976,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.05438862802058524</v>
+        <v>-0.01112499031365805</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01586863093665228</v>
+        <v>0.02377429475746331</v>
       </c>
       <c r="F19" t="n">
-        <v>101.9064944961077</v>
+        <v>-0.003459327562638926</v>
+      </c>
+      <c r="G19" t="n">
+        <v>101.0647314778408</v>
       </c>
     </row>
     <row r="20">
@@ -946,17 +1005,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.1108781488432732</v>
+        <v>-0.03618145949222908</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.114300585288179</v>
+        <v>1.942102965652685e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>580.2279238541882</v>
+        <v>-1.360741330535719</v>
+      </c>
+      <c r="G20" t="n">
+        <v>411.9111704148047</v>
       </c>
     </row>
     <row r="21">
@@ -972,17 +1034,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1454656299279003</v>
+        <v>0.1063800346547595</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03639174763391981</v>
+        <v>4.52621831357697e-104</v>
       </c>
       <c r="F21" t="n">
-        <v>21.66391476934545</v>
+        <v>0.02768626071929951</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22.08796191106827</v>
       </c>
     </row>
     <row r="22">
@@ -998,17 +1063,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.05219647628978313</v>
+        <v>0.09023232466736471</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002471072056961324</v>
+        <v>1.983913560749593e-75</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7600702885949397</v>
+        <v>0.005604468937172155</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5755645745771736</v>
       </c>
     </row>
     <row r="23">
@@ -1024,17 +1092,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.04824450953351431</v>
+        <v>0.02921074289189084</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04950637507104496</v>
+        <v>2.924909278795134e-09</v>
       </c>
       <c r="F23" t="n">
-        <v>1.264810691065438</v>
+        <v>0.02985007020636514</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.52583134591397</v>
       </c>
     </row>
     <row r="24">
@@ -1050,17 +1121,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2022758407351848</v>
+        <v>0.2374900485157499</v>
       </c>
       <c r="E24" t="n">
-        <v>0.009462910612668244</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4970967528686866</v>
+        <v>0.01312392534434653</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2336217764112137</v>
       </c>
     </row>
     <row r="25">
@@ -1076,17 +1150,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3296171415032903</v>
+        <v>-0.3196265218645343</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0802567104019733</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.843723675078999</v>
+        <v>-0.07714342113687789</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.935779887921752</v>
       </c>
     </row>
     <row r="26">
@@ -1102,17 +1179,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.130275906942592</v>
+        <v>0.07262547032188464</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02742341867508016</v>
+        <v>3.386458253417726e-48</v>
       </c>
       <c r="F26" t="n">
-        <v>1.267081876849717</v>
+        <v>0.01572777945536477</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.057671314334375</v>
       </c>
     </row>
     <row r="27">
@@ -1128,17 +1208,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.05569942147544558</v>
+        <v>-0.0342342772973639</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.099457070723056</v>
+        <v>3.604218783697687e-12</v>
       </c>
       <c r="F27" t="n">
-        <v>222.6675343991728</v>
+        <v>-0.6443978657894092</v>
+      </c>
+      <c r="G27" t="n">
+        <v>199.9916291717399</v>
       </c>
     </row>
     <row r="28">
@@ -1154,17 +1237,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.04999906844348474</v>
+        <v>-0.0234908561232048</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.190435363908138</v>
+        <v>1.864385892218372e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>119.9757012754588</v>
+        <v>-0.107268161043405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>118.5863122602018</v>
       </c>
     </row>
     <row r="29">
@@ -1180,17 +1266,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.07119873418785561</v>
+        <v>-0.1131628064482013</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02809708318596307</v>
+        <v>3.730724576641773e-115</v>
       </c>
       <c r="F29" t="n">
-        <v>43.82871857985111</v>
+        <v>-0.04901390924119733</v>
+      </c>
+      <c r="G29" t="n">
+        <v>45.24066459418241</v>
       </c>
     </row>
     <row r="30">
@@ -1206,17 +1295,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.002554045191952061</v>
+        <v>0.0330280193227014</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.005594141237355002</v>
+        <v>1.900481931715557e-11</v>
       </c>
       <c r="F30" t="n">
-        <v>58.88030427580267</v>
+        <v>0.06906069599998403</v>
+      </c>
+      <c r="G30" t="n">
+        <v>51.42787337431225</v>
       </c>
     </row>
     <row r="31">
@@ -1232,17 +1324,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.07410073848154149</v>
+        <v>-0.1477532465484505</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.009967373204106044</v>
+        <v>7.344953194373602e-196</v>
       </c>
       <c r="F31" t="n">
-        <v>14.40847741701543</v>
+        <v>-0.02235301752761906</v>
+      </c>
+      <c r="G31" t="n">
+        <v>15.25577954432965</v>
       </c>
     </row>
     <row r="32">
@@ -1258,17 +1353,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.08846180256154629</v>
+        <v>0.07499839617955321</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00384500181961956</v>
+        <v>1.903912724844911e-52</v>
       </c>
       <c r="F32" t="n">
-        <v>3.94595915899983</v>
+        <v>0.003331461511290887</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.956523492818881</v>
       </c>
     </row>
     <row r="33">
@@ -1284,17 +1382,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1030500046015562</v>
+        <v>-0.1268505797642051</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.3568333346746816</v>
+        <v>1.013525985382348e-143</v>
       </c>
       <c r="F33" t="n">
-        <v>126.3143891997135</v>
+        <v>-0.456471670571534</v>
+      </c>
+      <c r="G33" t="n">
+        <v>133.3383586802699</v>
       </c>
     </row>
     <row r="34">
@@ -1310,17 +1411,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.2046292533812393</v>
+        <v>-0.1447798876060308</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.193627532414602</v>
+        <v>2.218868604857075e-187</v>
       </c>
       <c r="F34" t="n">
-        <v>43.1188527547817</v>
+        <v>-0.1355344527565503</v>
+      </c>
+      <c r="G34" t="n">
+        <v>39.48551583239922</v>
       </c>
     </row>
     <row r="35">
@@ -1336,17 +1440,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.09141806962707165</v>
+        <v>0.08750732187787028</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01917479316894477</v>
+        <v>3.316016201033161e-69</v>
       </c>
       <c r="F35" t="n">
-        <v>29.36599042413212</v>
+        <v>0.01962808092257999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>29.11538861935083</v>
       </c>
     </row>
     <row r="36">
@@ -1362,17 +1469,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.02503921918339858</v>
+        <v>-0.1129173403452265</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.002992203851882151</v>
+        <v>1.027805237218616e-113</v>
       </c>
       <c r="F36" t="n">
-        <v>32.96248360071527</v>
+        <v>-0.01428231881782387</v>
+      </c>
+      <c r="G36" t="n">
+        <v>33.78097601737079</v>
       </c>
     </row>
     <row r="37">
@@ -1388,17 +1498,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1231888699745749</v>
+        <v>0.170811434699319</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07182323363915967</v>
+        <v>7.293980251280733e-262</v>
       </c>
       <c r="F37" t="n">
-        <v>88.83421157113331</v>
+        <v>0.1157183818602671</v>
+      </c>
+      <c r="G37" t="n">
+        <v>85.02369480099992</v>
       </c>
     </row>
     <row r="38">
@@ -1414,17 +1527,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1487322485880123</v>
+        <v>0.1244950769205542</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0344074606312323</v>
+        <v>1.054198039784387e-138</v>
       </c>
       <c r="F38" t="n">
-        <v>6.02415526436676</v>
+        <v>0.03037373263547381</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.354845317303734</v>
       </c>
     </row>
     <row r="39">
@@ -1440,17 +1556,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0260181875868685</v>
+        <v>0.02528011323453508</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002531949491037419</v>
+        <v>4.260694767031435e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>11.02625653791604</v>
+        <v>0.002596886309457212</v>
+      </c>
+      <c r="G39" t="n">
+        <v>11.06709027815372</v>
       </c>
     </row>
     <row r="40">
@@ -1466,17 +1585,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01307101913612135</v>
+        <v>0.0372700157853053</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003532209850551908</v>
+        <v>3.558281370389026e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>139.4370720936105</v>
+        <v>0.01057597773936665</v>
+      </c>
+      <c r="G40" t="n">
+        <v>138.7195344872333</v>
       </c>
     </row>
     <row r="41">
@@ -1492,17 +1614,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.1273704791681304</v>
+        <v>0.0860462568522075</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1290607775289917</v>
+        <v>5.555657253804799e-67</v>
       </c>
       <c r="F41" t="n">
-        <v>48.91344355035766</v>
+        <v>0.08615756013797381</v>
+      </c>
+      <c r="G41" t="n">
+        <v>51.45786649135498</v>
       </c>
     </row>
     <row r="42">
@@ -1518,17 +1643,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1623693897234398</v>
+        <v>0.07448330736109679</v>
       </c>
       <c r="E42" t="n">
-        <v>10.65653686349531</v>
+        <v>1.582066534058226e-50</v>
       </c>
       <c r="F42" t="n">
-        <v>-457.6718782367823</v>
+        <v>14.465270791641</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-673.7015178235315</v>
       </c>
     </row>
     <row r="43">
@@ -1544,17 +1672,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.02834924767342339</v>
+        <v>0.03147773289307562</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006451352150427721</v>
+        <v>3.037913972961817e-10</v>
       </c>
       <c r="F43" t="n">
-        <v>13.40916249482486</v>
+        <v>0.007629567623393584</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.42241375958558</v>
       </c>
     </row>
     <row r="44">
@@ -1570,17 +1701,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.09707473278259894</v>
+        <v>-0.1333805729747542</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.6351847778234265</v>
+        <v>1.233872931742127e-159</v>
       </c>
       <c r="F44" t="n">
-        <v>277.7062644085767</v>
+        <v>-0.890617652560632</v>
+      </c>
+      <c r="G44" t="n">
+        <v>290.7535204049637</v>
       </c>
     </row>
     <row r="45">
@@ -1596,17 +1730,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.1443240304874102</v>
+        <v>-0.2084551918204582</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.007178914783502921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4.976755744242094</v>
+        <v>-0.01087123300765668</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.270108860955561</v>
       </c>
     </row>
     <row r="46">
@@ -1622,17 +1759,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.03489316214144838</v>
+        <v>0.102787385320177</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004461759343895025</v>
+        <v>3.087987361386936e-95</v>
       </c>
       <c r="F46" t="n">
-        <v>13.61477251978207</v>
+        <v>0.01495205343104476</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12.93447450047146</v>
       </c>
     </row>
     <row r="47">
@@ -1648,17 +1788,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.08398222451363661</v>
+        <v>-0.07246750006704319</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5622886184011663</v>
+        <v>3.365744894135196e-49</v>
       </c>
       <c r="F47" t="n">
-        <v>177.8542082035129</v>
+        <v>-0.7483419499886746</v>
+      </c>
+      <c r="G47" t="n">
+        <v>203.6693017285545</v>
       </c>
     </row>
     <row r="48">
@@ -1674,17 +1817,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1731881964522511</v>
+        <v>-0.1591017914251082</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.007482785723811524</v>
+        <v>3.034493965618447e-232</v>
       </c>
       <c r="F48" t="n">
-        <v>7.365966451934963</v>
+        <v>-0.007249758126472736</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.39258150091718</v>
       </c>
     </row>
     <row r="49">
@@ -1700,17 +1846,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.07680124231171577</v>
+        <v>-0.003929175362510407</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01537978970681233</v>
+        <v>0.4305929444787119</v>
       </c>
       <c r="F49" t="n">
-        <v>5.819914582840524</v>
+        <v>-0.001192195219313365</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6.912746615008895</v>
       </c>
     </row>
     <row r="50">
@@ -1726,17 +1875,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.04034590653807843</v>
+        <v>0.01028276751702663</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.02360703626677918</v>
+        <v>0.03750596683622433</v>
       </c>
       <c r="F50" t="n">
-        <v>3.427239952857178</v>
+        <v>0.00647931601737579</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.536182213430668</v>
       </c>
     </row>
     <row r="51">
@@ -1752,17 +1904,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1154512163052533</v>
+        <v>0.159664128896874</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1513681070411194</v>
+        <v>8.19572454248283e-232</v>
       </c>
       <c r="F51" t="n">
-        <v>21.63784064368367</v>
+        <v>0.2127499324851189</v>
+      </c>
+      <c r="G51" t="n">
+        <v>15.4275733984641</v>
       </c>
     </row>
     <row r="52">
@@ -1778,17 +1933,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1133049109519833</v>
+        <v>-0.1919396041813628</v>
       </c>
       <c r="E52" t="n">
-        <v>-161.395452241323</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>59489.87754123742</v>
+        <v>-282.4863129271289</v>
+      </c>
+      <c r="G52" t="n">
+        <v>67816.55364943774</v>
       </c>
     </row>
     <row r="53">
@@ -1804,17 +1962,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02657567953974518</v>
+        <v>0.03349533792906847</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04108098905182287</v>
+        <v>1.060547193653082e-11</v>
       </c>
       <c r="F53" t="n">
-        <v>1.623113043648488</v>
+        <v>0.03017313033658121</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.04019547305617</v>
       </c>
     </row>
     <row r="54">
@@ -1830,17 +1991,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.01657920712576162</v>
+        <v>-0.006598750749433198</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5797325985553674</v>
+        <v>0.1806076887928613</v>
       </c>
       <c r="F54" t="n">
-        <v>609.9916931191985</v>
+        <v>-0.3199492697534846</v>
+      </c>
+      <c r="G54" t="n">
+        <v>616.6407472290164</v>
       </c>
     </row>
     <row r="55">
@@ -1856,17 +2020,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.06797740036490049</v>
+        <v>0.03676325443384525</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.08149646610996558</v>
+        <v>8.541054443168184e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>11.04712258336475</v>
+        <v>0.2065900095161076</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-6.604405015025824</v>
       </c>
     </row>
     <row r="56">
@@ -1882,17 +2049,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.09079034242479143</v>
+        <v>0.1166079221456779</v>
       </c>
       <c r="E56" t="n">
-        <v>13.29940281618972</v>
+        <v>1.376967233677751e-124</v>
       </c>
       <c r="F56" t="n">
-        <v>894.2392630914303</v>
+        <v>21.80877307346841</v>
+      </c>
+      <c r="G56" t="n">
+        <v>334.0053177628351</v>
       </c>
     </row>
     <row r="57">
@@ -1908,17 +2078,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.123587064146825</v>
+        <v>-0.1823933509698697</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4609477552415874</v>
+        <v>8.119967103602981e-305</v>
       </c>
       <c r="F57" t="n">
-        <v>132.7832961954547</v>
+        <v>-0.7261542634383397</v>
+      </c>
+      <c r="G57" t="n">
+        <v>154.4552986396364</v>
       </c>
     </row>
     <row r="58">
@@ -1934,17 +2107,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.06620250979088434</v>
+        <v>-0.008009992313803031</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.004475930441851009</v>
+        <v>0.1637692273789881</v>
       </c>
       <c r="F58" t="n">
-        <v>1.247626960395858</v>
+        <v>-0.000429039937547172</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9487571165780047</v>
       </c>
     </row>
     <row r="59">
@@ -1960,17 +2136,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.01695432874927151</v>
+        <v>0.09740975537512629</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.01002454088805843</v>
+        <v>3.755497534052469e-68</v>
       </c>
       <c r="F59" t="n">
-        <v>13.75142471696878</v>
+        <v>0.05756576808920056</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.058279917487489</v>
       </c>
     </row>
     <row r="60">
@@ -1986,17 +2165,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.03907562544586848</v>
+        <v>-0.1362040272859726</v>
       </c>
       <c r="E60" t="n">
-        <v>-38.1109264185384</v>
+        <v>2.192901039592972e-143</v>
       </c>
       <c r="F60" t="n">
-        <v>39250.50237127271</v>
+        <v>-139.7506737724067</v>
+      </c>
+      <c r="G60" t="n">
+        <v>46074.61818586179</v>
       </c>
     </row>
     <row r="61">
@@ -2012,17 +2194,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.02275209588458509</v>
+        <v>0.006735736790833319</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1608573650116522</v>
+        <v>0.2094834698032698</v>
       </c>
       <c r="F61" t="n">
-        <v>235.407131400144</v>
+        <v>0.04444685980489808</v>
+      </c>
+      <c r="G61" t="n">
+        <v>218.6159526779364</v>
       </c>
     </row>
     <row r="62">
@@ -2038,17 +2223,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.043335895581647</v>
+        <v>0.02942798916624308</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0003203323949535389</v>
+        <v>1.027429708578772e-08</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02804542169052199</v>
+        <v>0.0001597636518872588</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03965817841178497</v>
       </c>
     </row>
     <row r="63">
@@ -2064,17 +2252,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.08933213354160988</v>
+        <v>0.03130619556844436</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000308661675691874</v>
+        <v>1.123412491965751e-09</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01511379661057305</v>
+        <v>0.0001042705878768977</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02934025917136027</v>
       </c>
     </row>
     <row r="64">
@@ -2090,17 +2281,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.001570638733091301</v>
+        <v>-0.001032618811364959</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.679787081732423e-06</v>
+        <v>0.8408134884172032</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00726355435644285</v>
+        <v>-2.52589901331851e-06</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.007173775877079681</v>
       </c>
     </row>
     <row r="65">
@@ -2116,17 +2310,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.08543929918783877</v>
+        <v>0.09274726778960822</v>
       </c>
       <c r="E65" t="n">
-        <v>0.001530456723589868</v>
+        <v>4.420622508431634e-73</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1316817623026404</v>
+        <v>0.001691263211671792</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.1140715708870745</v>
       </c>
     </row>
     <row r="66">
@@ -2142,17 +2339,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.01039631329037753</v>
+        <v>0.01492375737377099</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.246192261253082e-06</v>
+        <v>0.003694761374427884</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001897746616774278</v>
+        <v>3.685333610029883e-06</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.001411826558484156</v>
       </c>
     </row>
     <row r="67">
@@ -2168,17 +2368,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.0855377507242886</v>
+        <v>0.09121718455384489</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001481712298352941</v>
+        <v>1.000501608900357e-70</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1227570362317715</v>
+        <v>0.001599886763257846</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1074778871927239</v>
       </c>
     </row>
     <row r="68">
@@ -2194,17 +2397,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.1548485455903109</v>
+        <v>0.07835675101647552</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002124733861813828</v>
+        <v>1.270025053649114e-52</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05193313983476971</v>
+        <v>0.001234616593176701</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1096606347613705</v>
       </c>
     </row>
     <row r="69">
@@ -2220,17 +2426,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.1536710164450532</v>
+        <v>0.07629010058189395</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002024541009682121</v>
+        <v>5.842032250821881e-50</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0491147810118957</v>
+        <v>0.001139387222594131</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.1059587078484967</v>
       </c>
     </row>
     <row r="70">
@@ -2246,17 +2455,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.167224404529537</v>
+        <v>0.08538522200063614</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000143090080785339</v>
+        <v>3.598368011169631e-62</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.002297806447149257</v>
+        <v>0.0001354422150619688</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.001640880790160144</v>
       </c>
     </row>
     <row r="71">
@@ -2272,17 +2484,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.05452518429853471</v>
+        <v>0.01127702813311241</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0007070991456358345</v>
+        <v>0.02649674743010853</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6662827694574273</v>
+        <v>0.0001488747721648927</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.7017954140062511</v>
       </c>
     </row>
     <row r="72">
@@ -2298,17 +2513,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.07322778173871625</v>
+        <v>-0.04041848946509394</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0006549662293402642</v>
+        <v>1.781433090022941e-15</v>
       </c>
       <c r="F72" t="n">
-        <v>0.197823098968247</v>
+        <v>-0.0003895728785647618</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.183053779049917</v>
       </c>
     </row>
     <row r="73">
@@ -2324,17 +2542,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.07917578854506853</v>
+        <v>-0.03446426362362002</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.0001050296325908527</v>
+        <v>1.174684617158837e-11</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01595732185629913</v>
+        <v>-5.301614052688108e-05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01218486221100754</v>
       </c>
     </row>
     <row r="74">
@@ -2350,17 +2571,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.007909727256184997</v>
+        <v>0.01709670143489713</v>
       </c>
       <c r="E74" t="n">
-        <v>5.027086284450484e-05</v>
+        <v>0.0007675577124326998</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9346070568251527</v>
+        <v>0.0001265484554269407</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9253353145646211</v>
       </c>
     </row>
     <row r="75">
@@ -2376,17 +2600,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.03268485867890207</v>
+        <v>-0.005522996864457074</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0002666412729385551</v>
+        <v>0.2771511767774613</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9368247367688041</v>
+        <v>-4.745908269627769e-05</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.956190262415894</v>
       </c>
     </row>
     <row r="76">
@@ -2402,17 +2629,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.1034752656085656</v>
+        <v>0.09083319230889979</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0003267244653276023</v>
+        <v>9.883251620079031e-72</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01584116781720944</v>
+        <v>0.0003916077162756761</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01167592960719984</v>
       </c>
     </row>
     <row r="77">
@@ -2428,17 +2658,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.02386006419066906</v>
+        <v>0.00714793238386528</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0008348998452865192</v>
+        <v>0.1609515238943487</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1966152763344989</v>
+        <v>0.00148646666513506</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.07603630132147055</v>
       </c>
     </row>
     <row r="78">
@@ -2454,17 +2687,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.05500109384121715</v>
+        <v>-0.07248939941818207</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.0001691037759857183</v>
+        <v>1.969191763491719e-37</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03980063238951768</v>
+        <v>-0.0002146133502730059</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04265540948374039</v>
       </c>
     </row>
     <row r="79">
@@ -2480,17 +2716,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.2578896268351409</v>
+        <v>-0.2119313863195472</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.005441352157248697</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7297908143599817</v>
+        <v>-0.004352296102905261</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.6500283080517786</v>
       </c>
     </row>
     <row r="80">
@@ -2506,17 +2745,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.1804793602029379</v>
+        <v>-0.1120591034363291</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.004250567806890163</v>
+        <v>1.029182761573877e-107</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6210664295808803</v>
+        <v>-0.002881699970831213</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5506484669827137</v>
       </c>
     </row>
     <row r="81">
@@ -2532,17 +2774,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.07786607789908306</v>
+        <v>-0.05962872651305649</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0003802362118517962</v>
+        <v>1.592057490445161e-31</v>
       </c>
       <c r="F81" t="n">
-        <v>0.05128723432802983</v>
+        <v>-0.0004268896128663893</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0641499617977708</v>
       </c>
     </row>
     <row r="82">
@@ -2558,17 +2803,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1917633204705621</v>
+        <v>-0.1949657572066454</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.009113613005956674</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1.580419859658506</v>
+        <v>-0.009477557174541604</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.612824232306683</v>
       </c>
     </row>
     <row r="83">
@@ -2584,17 +2832,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.007099950430424877</v>
+        <v>-0.0166044351881782</v>
       </c>
       <c r="E83" t="n">
-        <v>6.785619431050167e-05</v>
+        <v>0.001142706672045544</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01364393526602003</v>
+        <v>-0.0001685651675770291</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03002712694597675</v>
       </c>
     </row>
     <row r="84">
@@ -2610,17 +2861,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.01690215779902571</v>
+        <v>0.01375677809860498</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.894684312721814e-05</v>
+        <v>0.007041105015017774</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01659036245716168</v>
+        <v>0.002765173616780805</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.1509881285872535</v>
       </c>
     </row>
     <row r="85">
@@ -2636,17 +2890,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3472182921625554</v>
+        <v>-0.3394751020358187</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.002355634002910366</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2255729929239656</v>
+        <v>-0.002350950802082653</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.2317451457331749</v>
       </c>
     </row>
     <row r="86">
@@ -2662,17 +2919,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.05877606516063729</v>
+        <v>-0.1021523558568785</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.001730839590845024</v>
+        <v>2.18639655967824e-89</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5415049883421981</v>
+        <v>-0.003280262626673189</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6536322948995921</v>
       </c>
     </row>
     <row r="87">
@@ -2688,17 +2948,20 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.2324985125786256</v>
+        <v>-0.2078960384098262</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.01429894897318108</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2.358358632495626</v>
+        <v>-0.01335296608770345</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.332149258022803</v>
       </c>
     </row>
     <row r="88">
@@ -2714,17 +2977,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.0729049764094632</v>
+        <v>-0.1588232286867588</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.0007834090195323537</v>
+        <v>3.385439835135584e-215</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1435037711433397</v>
+        <v>-0.001701878389831694</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.2126030463596816</v>
       </c>
     </row>
     <row r="89">
@@ -2740,17 +3006,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.04385307221503482</v>
+        <v>-0.1060330027559395</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.0001890176502854469</v>
+        <v>9.717117438863113e-99</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0791199607519337</v>
+        <v>-0.0005722799229932335</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1094336955960606</v>
       </c>
     </row>
     <row r="90">
@@ -2766,17 +3035,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.06434711555820286</v>
+        <v>0.01531622799729871</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0006854451618114402</v>
+        <v>0.002381016431383075</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2835523975001543</v>
+        <v>0.0001855316593941345</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.2347889831313076</v>
       </c>
     </row>
     <row r="91">
@@ -2792,17 +3064,20 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.05288734123562532</v>
+        <v>-0.01844556442627147</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0006535367111691021</v>
+        <v>0.0002533143623059978</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6499640879380513</v>
+        <v>-0.0002594326067047961</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.6980125951503842</v>
       </c>
     </row>
     <row r="92">
@@ -2818,17 +3093,20 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.2072727001800165</v>
+        <v>-0.1769429768467307</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.002670131127534396</v>
+        <v>4.122916273285412e-274</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8768885776303765</v>
+        <v>-0.002416374353901379</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.8647657236368462</v>
       </c>
     </row>
     <row r="93">
@@ -2844,17 +3122,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.04384825570247157</v>
+        <v>-0.07999686091071585</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.000699003574290564</v>
+        <v>9.621974739880455e-57</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6960769729323009</v>
+        <v>-0.001398347242496995</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.7467171460603927</v>
       </c>
     </row>
     <row r="94">
@@ -2870,17 +3151,20 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.06883802132729028</v>
+        <v>0.1129630842041802</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0001901495972176543</v>
+        <v>1.035617007167892e-107</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02330513684848389</v>
+        <v>0.0003012495429576028</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01445441457237914</v>
       </c>
     </row>
     <row r="95">
@@ -2896,17 +3180,20 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1377606721327558</v>
+        <v>0.09298692944371789</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0002584963527129195</v>
+        <v>1.885251661503177e-73</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01154454454648663</v>
+        <v>0.0002018995217467889</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.01518721238546131</v>
       </c>
     </row>
     <row r="96">
@@ -2922,17 +3209,20 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.06628213933582902</v>
+        <v>0.05231115132720675</v>
       </c>
       <c r="E96" t="n">
-        <v>3.698160497162078e-05</v>
+        <v>2.348544560140889e-24</v>
       </c>
       <c r="F96" t="n">
-        <v>0.005044876430137344</v>
+        <v>3.200759909445785e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.005528375789957032</v>
       </c>
     </row>
     <row r="97">
@@ -2948,17 +3238,20 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.01136674508702336</v>
+        <v>-0.002814921958695842</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.001157061883412119</v>
+        <v>0.6538961517754128</v>
       </c>
       <c r="F97" t="n">
-        <v>5.997873142187247</v>
+        <v>-0.0003026511209042176</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.989239694931681</v>
       </c>
     </row>
     <row r="98">
@@ -2974,17 +3267,20 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.09603426065758119</v>
+        <v>0.0566470293001089</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1741549553921685</v>
+        <v>1.121408851315457e-20</v>
       </c>
       <c r="F98" t="n">
-        <v>44.36261538115384</v>
+        <v>0.1057395670853238</v>
+      </c>
+      <c r="G98" t="n">
+        <v>46.62553957339082</v>
       </c>
     </row>
     <row r="99">
@@ -3000,17 +3296,20 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.1034607085178632</v>
+        <v>-0.09616464146679114</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.3977981365213034</v>
+        <v>1.320426957639164e-57</v>
       </c>
       <c r="F99" t="n">
-        <v>219.7777942689122</v>
+        <v>-0.4089319369499383</v>
+      </c>
+      <c r="G99" t="n">
+        <v>216.9009557069652</v>
       </c>
     </row>
     <row r="100">
@@ -3026,17 +3325,20 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.001796160627323126</v>
+        <v>-0.01729172551061142</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.0007342618981726457</v>
+        <v>0.003912113794603255</v>
       </c>
       <c r="F100" t="n">
-        <v>3.327144312167377</v>
+        <v>-0.007217254617568872</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.878410490971322</v>
       </c>
     </row>
     <row r="101">
@@ -3052,17 +3354,20 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2293356747545165</v>
+        <v>0.2427036752439131</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01057782973062367</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4069132267419862</v>
+        <v>0.01297004613004188</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.2155838444683332</v>
       </c>
     </row>
     <row r="102">
@@ -3078,17 +3383,20 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6932507940657209</v>
+        <v>-0.6451154766639285</v>
       </c>
       <c r="E102" t="n">
-        <v>-20565288.21957214</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1754686163.490256</v>
+        <v>-17025756.12565992</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1451098688.170189</v>
       </c>
     </row>
     <row r="103">
@@ -3104,17 +3412,20 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6932507899590815</v>
+        <v>-0.6451154726184486</v>
       </c>
       <c r="E103" t="n">
-        <v>-20565.28820660634</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1754686.14693136</v>
+        <v>-17025.75618492233</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1451098.674507047</v>
       </c>
     </row>
     <row r="104">
@@ -3130,17 +3441,20 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.1039538749763252</v>
+        <v>-0.078701339880887</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.6799113537071523</v>
+        <v>3.878367799003171e-71</v>
       </c>
       <c r="F104" t="n">
-        <v>249.5166893999665</v>
+        <v>-1.012577368309816</v>
+      </c>
+      <c r="G104" t="n">
+        <v>254.9985071415742</v>
       </c>
     </row>
     <row r="105">
@@ -3156,17 +3470,20 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.03257173065466554</v>
+        <v>0.05189752009475961</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0001917213409701247</v>
+        <v>2.445963099306169e-27</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03917664642930715</v>
+        <v>0.0003075916126723142</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.03282478759855516</v>
       </c>
     </row>
     <row r="106">
@@ -3182,17 +3499,20 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.05046524850928808</v>
+        <v>0.07130556418176248</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0009504931988734532</v>
+        <v>3.704092212283863e-50</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1492557808852031</v>
+        <v>0.001083645177415379</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1382514393318964</v>
       </c>
     </row>
     <row r="107">
@@ -3208,17 +3528,20 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.1445954865509418</v>
+        <v>-0.1025890491883778</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.004720722700186292</v>
+        <v>1.11426846265925e-104</v>
       </c>
       <c r="F107" t="n">
-        <v>4.276404891921375</v>
+        <v>-0.00319376477338614</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4.156306305465148</v>
       </c>
     </row>
     <row r="108">
@@ -3234,17 +3557,20 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.005940876867303858</v>
+        <v>-0.005241105589300715</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.01710072950022345</v>
+        <v>0.2684262202624086</v>
       </c>
       <c r="F108" t="n">
-        <v>81.20403127869757</v>
+        <v>-0.01567970741848148</v>
+      </c>
+      <c r="G108" t="n">
+        <v>82.43001673812689</v>
       </c>
     </row>
     <row r="109">
@@ -3260,17 +3586,20 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1891838190496829</v>
+        <v>-0.1858922883119521</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.2978043372992283</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>42.12412299455517</v>
+        <v>-0.2556713849924883</v>
+      </c>
+      <c r="G109" t="n">
+        <v>37.96912706308503</v>
       </c>
     </row>
     <row r="110">
@@ -3286,17 +3615,20 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.02520180591148744</v>
+        <v>-0.02780678673715343</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.00265254887436032</v>
+        <v>6.584720175815543e-09</v>
       </c>
       <c r="F110" t="n">
-        <v>2.227290159863084</v>
+        <v>-0.006499028862891471</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.491302314725203</v>
       </c>
     </row>
     <row r="111">
@@ -3312,17 +3644,20 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.1341654594847796</v>
+        <v>0.0990257482322435</v>
       </c>
       <c r="E111" t="n">
-        <v>0.00284553985475712</v>
+        <v>3.049004041980006e-95</v>
       </c>
       <c r="F111" t="n">
-        <v>0.369236801690868</v>
+        <v>0.002103753949104515</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.4224965449102432</v>
       </c>
     </row>
     <row r="112">
@@ -3338,17 +3673,20 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.05781475604074671</v>
+        <v>0.02399047555858456</v>
       </c>
       <c r="E112" t="n">
-        <v>0.009041678066084007</v>
+        <v>5.606486199312858e-07</v>
       </c>
       <c r="F112" t="n">
-        <v>3.348194239810697</v>
+        <v>0.003494944028286334</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3.689763409441555</v>
       </c>
     </row>
     <row r="113">
@@ -3364,17 +3702,20 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.09995910518088004</v>
+        <v>-0.08290753185047621</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.170720514034347</v>
+        <v>2.787235694338954e-68</v>
       </c>
       <c r="F113" t="n">
-        <v>35.17976030838509</v>
+        <v>-0.1133455322001477</v>
+      </c>
+      <c r="G113" t="n">
+        <v>30.31055671364929</v>
       </c>
     </row>
     <row r="114">
@@ -3390,17 +3731,20 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.008553642008297006</v>
+        <v>0.05268973577869913</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.0005189880978321301</v>
+        <v>3.955339527386887e-28</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9045732016775063</v>
+        <v>0.003299087337955009</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.6583147155348986</v>
       </c>
     </row>
     <row r="115">
@@ -3416,17 +3760,20 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.06743532433444575</v>
+        <v>0.07827590416313775</v>
       </c>
       <c r="E115" t="n">
-        <v>0.001947916972955692</v>
+        <v>1.889590121417334e-61</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3457642809155674</v>
+        <v>0.002015868846678305</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.3313162914226697</v>
       </c>
     </row>
     <row r="116">
@@ -3442,17 +3789,20 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2533594085276903</v>
+        <v>0.2274704721732257</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1598404075400974</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>5.98199256266134</v>
+        <v>0.1503240817105383</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7.600144161375837</v>
       </c>
     </row>
     <row r="117">
@@ -3468,17 +3818,20 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.00648531072467875</v>
+        <v>0.02243752739514197</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0002552858118796508</v>
+        <v>2.163219788902579e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>9.281359489875168</v>
+        <v>0.0008411171555178343</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9.252933509855227</v>
       </c>
     </row>
     <row r="118">
@@ -3494,17 +3847,20 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1236480714585149</v>
+        <v>-0.1119754864719084</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.5041410405249133</v>
+        <v>1.944009257973459e-124</v>
       </c>
       <c r="F118" t="n">
-        <v>223.089099218539</v>
+        <v>-0.4454175378124131</v>
+      </c>
+      <c r="G118" t="n">
+        <v>218.1608207048012</v>
       </c>
     </row>
     <row r="119">
@@ -3520,17 +3876,20 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.03579355364960132</v>
+        <v>-0.03691570828338846</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.01074328432914135</v>
+        <v>6.158436876952183e-15</v>
       </c>
       <c r="F119" t="n">
-        <v>101.6485494726665</v>
+        <v>-0.01099648729219597</v>
+      </c>
+      <c r="G119" t="n">
+        <v>101.5730216840607</v>
       </c>
     </row>
     <row r="120">
@@ -3546,17 +3905,20 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.0684061369089024</v>
+        <v>-0.05417705618274433</v>
       </c>
       <c r="E120" t="n">
-        <v>-2.568461760097183</v>
+        <v>2.366250897915893e-30</v>
       </c>
       <c r="F120" t="n">
-        <v>475.2542290869906</v>
+        <v>-2.06101183869441</v>
+      </c>
+      <c r="G120" t="n">
+        <v>465.9582470315385</v>
       </c>
     </row>
     <row r="121">
@@ -3572,17 +3934,20 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.1785833161892413</v>
+        <v>0.1040381818851857</v>
       </c>
       <c r="E121" t="n">
-        <v>0.04675011833302484</v>
+        <v>1.779753575346779e-107</v>
       </c>
       <c r="F121" t="n">
-        <v>20.77440566539292</v>
+        <v>0.02589566230968929</v>
+      </c>
+      <c r="G121" t="n">
+        <v>22.32887125285342</v>
       </c>
     </row>
     <row r="122">
@@ -3598,17 +3963,20 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.07066309854820566</v>
+        <v>0.05069981866733475</v>
       </c>
       <c r="E122" t="n">
-        <v>0.003668264421458466</v>
+        <v>8.265973124197398e-27</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6789573359946264</v>
+        <v>0.00281147042688174</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.7646660054854155</v>
       </c>
     </row>
     <row r="123">
@@ -3624,17 +3992,20 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.05641915123066427</v>
+        <v>0.0259240575855684</v>
       </c>
       <c r="E123" t="n">
-        <v>0.06028558557807549</v>
+        <v>4.354426140132492e-08</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1992975847773328</v>
+        <v>0.02481111722619488</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.968796698453406</v>
       </c>
     </row>
     <row r="124">
@@ -3650,17 +4021,20 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.2156118109432818</v>
+        <v>0.2133616031500981</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01100766222939517</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3565270601155992</v>
+        <v>0.01102084219665458</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4193437513055358</v>
       </c>
     </row>
     <row r="125">
@@ -3676,17 +4050,20 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.2780378004291974</v>
+        <v>-0.3222931365426143</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.07323318095550231</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>7.728675664360182</v>
+        <v>-0.0695754991885623</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7.058915568906833</v>
       </c>
     </row>
     <row r="126">
@@ -3702,17 +4079,20 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.08175785773519996</v>
+        <v>0.1028615684930569</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01857813892813647</v>
+        <v>1.191500951049507e-102</v>
       </c>
       <c r="F126" t="n">
-        <v>1.842729899997692</v>
+        <v>0.02113145195855303</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.727441879068447</v>
       </c>
     </row>
     <row r="127">
@@ -3728,17 +4108,20 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.05828153428511681</v>
+        <v>-0.02542194595344681</v>
       </c>
       <c r="E127" t="n">
-        <v>-1.252004177305083</v>
+        <v>8.004106007665058e-08</v>
       </c>
       <c r="F127" t="n">
-        <v>245.173658159407</v>
+        <v>-0.436382388921053</v>
+      </c>
+      <c r="G127" t="n">
+        <v>177.6756662210477</v>
       </c>
     </row>
     <row r="128">
@@ -3754,17 +4137,20 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.05529326692018285</v>
+        <v>0.003215173396156109</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.2210422525176059</v>
+        <v>0.497619842965125</v>
       </c>
       <c r="F128" t="n">
-        <v>122.9364421732756</v>
+        <v>0.01338176785425327</v>
+      </c>
+      <c r="G128" t="n">
+        <v>109.4859278997306</v>
       </c>
     </row>
     <row r="129">
@@ -3780,17 +4166,20 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.06465337000432982</v>
+        <v>-0.1092427466734872</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.02670955571279648</v>
+        <v>4.229298478674872e-116</v>
       </c>
       <c r="F129" t="n">
-        <v>43.89552294791487</v>
+        <v>-0.04500958170764936</v>
+      </c>
+      <c r="G129" t="n">
+        <v>44.60787398643201</v>
       </c>
     </row>
     <row r="130">
@@ -3806,17 +4195,20 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.03873784811597318</v>
+        <v>0.02274036680080111</v>
       </c>
       <c r="E130" t="n">
-        <v>0.08773685130224024</v>
+        <v>1.553317229895716e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>51.96915359022571</v>
+        <v>0.04561882023163874</v>
+      </c>
+      <c r="G130" t="n">
+        <v>54.12783031746261</v>
       </c>
     </row>
     <row r="131">
@@ -3832,17 +4224,20 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.09540130587089034</v>
+        <v>-0.1237534192811072</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.01351433673446081</v>
+        <v>9.747316050227526e-149</v>
       </c>
       <c r="F131" t="n">
-        <v>14.72894163117072</v>
+        <v>-0.01775316124783995</v>
+      </c>
+      <c r="G131" t="n">
+        <v>14.79004328785166</v>
       </c>
     </row>
     <row r="132">
@@ -3858,17 +4253,20 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.0921256627418346</v>
+        <v>0.06894480830896442</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004275132433116039</v>
+        <v>5.266067512065502e-48</v>
       </c>
       <c r="F132" t="n">
-        <v>3.90476386478693</v>
+        <v>0.002904245319669087</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3.99768092783667</v>
       </c>
     </row>
     <row r="133">
@@ -3884,17 +4282,20 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1210801015739824</v>
+        <v>-0.1073400219791944</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.4416723819371309</v>
+        <v>8.429348758747572e-112</v>
       </c>
       <c r="F133" t="n">
-        <v>132.992084487802</v>
+        <v>-0.3673407879200515</v>
+      </c>
+      <c r="G133" t="n">
+        <v>126.4611339440739</v>
       </c>
     </row>
     <row r="134">
@@ -3910,17 +4311,20 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.1381841402653318</v>
+        <v>-0.173067008485514</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.1342929899388527</v>
+        <v>1.101739739204715e-289</v>
       </c>
       <c r="F134" t="n">
-        <v>39.46778374615488</v>
+        <v>-0.156332117192198</v>
+      </c>
+      <c r="G134" t="n">
+        <v>40.67847602674509</v>
       </c>
     </row>
     <row r="135">
@@ -3936,17 +4340,20 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.05221132971915855</v>
+        <v>0.1045275915735643</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01147100369133554</v>
+        <v>3.977666262457573e-106</v>
       </c>
       <c r="F135" t="n">
-        <v>29.86448049560787</v>
+        <v>0.02226607374981751</v>
+      </c>
+      <c r="G135" t="n">
+        <v>28.96130277818465</v>
       </c>
     </row>
     <row r="136">
@@ -3962,17 +4369,20 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.09643888325072215</v>
+        <v>-0.05987386667625105</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.01200869611858864</v>
+        <v>9.774653493567582e-36</v>
       </c>
       <c r="F136" t="n">
-        <v>33.64194691286683</v>
+        <v>-0.007179873158275097</v>
+      </c>
+      <c r="G136" t="n">
+        <v>33.21210350014292</v>
       </c>
     </row>
     <row r="137">
@@ -3988,17 +4398,20 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1206369624724787</v>
+        <v>0.1500292633003183</v>
       </c>
       <c r="E137" t="n">
-        <v>0.07388743539804539</v>
+        <v>2.695121075116983e-218</v>
       </c>
       <c r="F137" t="n">
-        <v>88.41141918811607</v>
+        <v>0.09520815827114379</v>
+      </c>
+      <c r="G137" t="n">
+        <v>86.78788207512643</v>
       </c>
     </row>
     <row r="138">
@@ -4014,17 +4427,20 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1249958087263841</v>
+        <v>0.1501845145879441</v>
       </c>
       <c r="E138" t="n">
-        <v>0.03086068695896778</v>
+        <v>7.419509861169431e-218</v>
       </c>
       <c r="F138" t="n">
-        <v>6.23211380484851</v>
+        <v>0.03468014637978876</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6.084779852491735</v>
       </c>
     </row>
     <row r="139">
@@ -4040,17 +4456,20 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.05901981954409848</v>
+        <v>-0.009310303171180142</v>
       </c>
       <c r="E139" t="n">
-        <v>0.006037738050212138</v>
+        <v>0.05295377555202538</v>
       </c>
       <c r="F139" t="n">
-        <v>10.80029396614772</v>
+        <v>-0.0009136645960707633</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11.29969725724393</v>
       </c>
     </row>
     <row r="140">
@@ -4066,17 +4485,20 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.04192156324175571</v>
+        <v>0.005807706883123938</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01179151958333654</v>
+        <v>0.2198906907961334</v>
       </c>
       <c r="F140" t="n">
-        <v>138.8050370998274</v>
+        <v>0.001568702505696781</v>
+      </c>
+      <c r="G140" t="n">
+        <v>139.4097778965043</v>
       </c>
     </row>
     <row r="141">
@@ -4092,17 +4514,20 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.07952544953304468</v>
+        <v>0.1011416910394032</v>
       </c>
       <c r="E141" t="n">
-        <v>0.08363421346283846</v>
+        <v>2.82453027302278e-99</v>
       </c>
       <c r="F141" t="n">
-        <v>51.67768766512459</v>
+        <v>0.09738929660000588</v>
+      </c>
+      <c r="G141" t="n">
+        <v>50.84701602891362</v>
       </c>
     </row>
     <row r="142">
@@ -4118,17 +4543,20 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.1500456217878137</v>
+        <v>0.07846954871237055</v>
       </c>
       <c r="E142" t="n">
-        <v>10.67735708490173</v>
+        <v>1.748836091853347e-60</v>
       </c>
       <c r="F142" t="n">
-        <v>-493.3096153643523</v>
+        <v>11.98829075881495</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-478.1665688830602</v>
       </c>
     </row>
     <row r="143">
@@ -4144,17 +4572,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.06476319861882497</v>
+        <v>-0.001917944559368753</v>
       </c>
       <c r="E143" t="n">
-        <v>0.01549594733839176</v>
+        <v>0.6901619102242023</v>
       </c>
       <c r="F143" t="n">
-        <v>12.82869347686846</v>
+        <v>-0.0004445313627208303</v>
+      </c>
+      <c r="G143" t="n">
+        <v>13.95281216646027</v>
       </c>
     </row>
     <row r="144">
@@ -4170,17 +4601,20 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.1126426237715509</v>
+        <v>-0.1073108515848788</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.767302211954289</v>
+        <v>5.876352578372955e-112</v>
       </c>
       <c r="F144" t="n">
-        <v>287.0796446011033</v>
+        <v>-0.6886825619226319</v>
+      </c>
+      <c r="G144" t="n">
+        <v>276.7625001787655</v>
       </c>
     </row>
     <row r="145">
@@ -4196,17 +4630,20 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.1313078507575956</v>
+        <v>-0.1918275573043798</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.006802871406842283</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>4.984712039992645</v>
+        <v>-0.009458733768627771</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.116677150670841</v>
       </c>
     </row>
     <row r="146">
@@ -4222,17 +4659,20 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.1001139933261204</v>
+        <v>0.05109895913236148</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01309816338624787</v>
+        <v>1.157540843104607e-26</v>
       </c>
       <c r="F146" t="n">
-        <v>12.964251313867</v>
+        <v>0.007110760206360236</v>
+      </c>
+      <c r="G146" t="n">
+        <v>13.52283235363362</v>
       </c>
     </row>
     <row r="147">
@@ -4248,17 +4688,20 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.1073534925008496</v>
+        <v>-0.06919493723445294</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.7332522344005277</v>
+        <v>1.734187526444526e-48</v>
       </c>
       <c r="F147" t="n">
-        <v>189.7456811130617</v>
+        <v>-0.6636002744701937</v>
+      </c>
+      <c r="G147" t="n">
+        <v>194.7353895720314</v>
       </c>
     </row>
     <row r="148">
@@ -4274,17 +4717,20 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.1601881374969733</v>
+        <v>-0.1604966499939363</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.00737060473132016</v>
+        <v>3.204045120649563e-255</v>
       </c>
       <c r="F148" t="n">
-        <v>7.398010975846741</v>
+        <v>-0.00691287830553402</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7.336915724686947</v>
       </c>
     </row>
     <row r="149">
@@ -4300,17 +4746,20 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.05033725387304302</v>
+        <v>0.002657690188821653</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0106291457540662</v>
+        <v>0.5793278835353801</v>
       </c>
       <c r="F149" t="n">
-        <v>6.106440602510936</v>
+        <v>0.0007767020069001703</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6.747015646386775</v>
       </c>
     </row>
     <row r="150">
@@ -4326,17 +4775,20 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.005659333995221548</v>
+        <v>-0.0132443865313682</v>
       </c>
       <c r="E150" t="n">
-        <v>0.003480057525571203</v>
+        <v>0.0053415332311632</v>
       </c>
       <c r="F150" t="n">
-        <v>1.691479599598743</v>
+        <v>-0.007991610986736421</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.483772139647522</v>
       </c>
     </row>
     <row r="151">
@@ -4352,17 +4804,20 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.1006906116210425</v>
+        <v>0.1506060255417251</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1341935848461991</v>
+        <v>1.042402680890276e-222</v>
       </c>
       <c r="F151" t="n">
-        <v>21.62261823545198</v>
+        <v>0.1945668817609186</v>
+      </c>
+      <c r="G151" t="n">
+        <v>17.86496641314213</v>
       </c>
     </row>
     <row r="152">
@@ -4378,17 +4833,20 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.1413812910225458</v>
+        <v>-0.1700507165357317</v>
       </c>
       <c r="E152" t="n">
-        <v>-213.5033350869132</v>
+        <v>6.762434682970635e-286</v>
       </c>
       <c r="F152" t="n">
-        <v>63750.2781543</v>
+        <v>-236.3600387514606</v>
+      </c>
+      <c r="G152" t="n">
+        <v>63819.44432066308</v>
       </c>
     </row>
     <row r="153">
@@ -4404,17 +4862,20 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.01839605961943023</v>
+        <v>0.01851116095847917</v>
       </c>
       <c r="E153" t="n">
-        <v>0.005768501023565784</v>
+        <v>9.412945503084744e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>3.522909216463104</v>
+        <v>0.01544547053289137</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3.070432266171698</v>
       </c>
     </row>
     <row r="154">
@@ -4430,17 +4891,20 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3.640155806047632e-05</v>
+        <v>-0.02804135205894354</v>
       </c>
       <c r="E154" t="n">
-        <v>0.001298550080790879</v>
+        <v>3.289448472102898e-09</v>
       </c>
       <c r="F154" t="n">
-        <v>560.7043021202403</v>
+        <v>-1.313903427820581</v>
+      </c>
+      <c r="G154" t="n">
+        <v>685.9291186744753</v>
       </c>
     </row>
     <row r="155">
@@ -4456,17 +4920,20 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-0.01075567077505695</v>
+        <v>0.03605177683914683</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.01379919989175747</v>
+        <v>2.793170961770926e-14</v>
       </c>
       <c r="F155" t="n">
-        <v>6.848373285119977</v>
+        <v>0.1831356167361758</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4.612231339699643</v>
       </c>
     </row>
     <row r="156">
@@ -4482,17 +4949,20 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.09886006052498843</v>
+        <v>0.08834070083906456</v>
       </c>
       <c r="E156" t="n">
-        <v>15.79574226572238</v>
+        <v>8.381855843963529e-78</v>
       </c>
       <c r="F156" t="n">
-        <v>674.0821331261525</v>
+        <v>15.15950571316339</v>
+      </c>
+      <c r="G156" t="n">
+        <v>842.6778090994101</v>
       </c>
     </row>
     <row r="157">
@@ -4508,17 +4978,20 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1600464488889826</v>
+        <v>-0.1637588124823917</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.6255261962652415</v>
+        <v>5.191266278621828e-265</v>
       </c>
       <c r="F157" t="n">
-        <v>146.3220242838121</v>
+        <v>-0.6157664974755205</v>
+      </c>
+      <c r="G157" t="n">
+        <v>143.7336502873362</v>
       </c>
     </row>
     <row r="158">
@@ -4534,17 +5007,20 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.004503771473743035</v>
+        <v>-0.05414220076514462</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.0002589633961878117</v>
+        <v>2.399229684575831e-22</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9243531332710004</v>
+        <v>-0.003238012838994012</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.162492918112036</v>
       </c>
     </row>
     <row r="159">
@@ -4560,17 +5036,20 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.0812483855237386</v>
+        <v>0.01593044428717018</v>
       </c>
       <c r="E159" t="n">
-        <v>0.05076657528599363</v>
+        <v>0.003339193008869313</v>
       </c>
       <c r="F159" t="n">
-        <v>9.658253437374933</v>
+        <v>0.008971083923092456</v>
+      </c>
+      <c r="G159" t="n">
+        <v>12.48441284673248</v>
       </c>
     </row>
     <row r="160">
@@ -4586,17 +5065,20 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.0963185981798466</v>
+        <v>-0.1366908992888983</v>
       </c>
       <c r="E160" t="n">
-        <v>-97.99128509523365</v>
+        <v>1.119718886521877e-153</v>
       </c>
       <c r="F160" t="n">
-        <v>43444.77593647884</v>
+        <v>-135.7428742995428</v>
+      </c>
+      <c r="G160" t="n">
+        <v>45296.50685740598</v>
       </c>
     </row>
     <row r="161">
@@ -4612,17 +5094,20 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.01955520921145873</v>
+        <v>-0.00310375519500743</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.1454112715951381</v>
+        <v>0.5506363549160556</v>
       </c>
       <c r="F161" t="n">
-        <v>231.6869067183109</v>
+        <v>-0.01967787011200244</v>
+      </c>
+      <c r="G161" t="n">
+        <v>224.9463759108633</v>
       </c>
     </row>
     <row r="162">
@@ -4638,17 +5123,20 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.1133472668002058</v>
+        <v>0.03001585410533147</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0004136537915891066</v>
+        <v>1.213781752861252e-09</v>
       </c>
       <c r="F162" t="n">
-        <v>0.02088484875475899</v>
+        <v>0.0001530902491224329</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.04011025315914125</v>
       </c>
     </row>
     <row r="163">
@@ -4664,17 +5152,20 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.1026701148927187</v>
+        <v>0.04414834746248426</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0003089104071376451</v>
+        <v>3.843604260871116e-19</v>
       </c>
       <c r="F163" t="n">
-        <v>0.01441434953512201</v>
+        <v>0.0001394606148586638</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.02707282515098567</v>
       </c>
     </row>
     <row r="164">
@@ -4690,17 +5181,20 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.06248670452236904</v>
+        <v>-0.003392077609806561</v>
       </c>
       <c r="E164" t="n">
-        <v>3.213475502299017e-05</v>
+        <v>0.4922937114194648</v>
       </c>
       <c r="F164" t="n">
-        <v>0.004305846694045334</v>
+        <v>-7.677727372542419e-06</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.007471115967869387</v>
       </c>
     </row>
     <row r="165">
@@ -4716,17 +5210,20 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.1172029862649269</v>
+        <v>0.05868922683212591</v>
       </c>
       <c r="E165" t="n">
-        <v>0.002225375257789115</v>
+        <v>1.294149410411227e-32</v>
       </c>
       <c r="F165" t="n">
-        <v>0.08157154986657983</v>
+        <v>0.00100627827323326</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.1616618147794356</v>
       </c>
     </row>
     <row r="166">
@@ -4742,17 +5239,20 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.008703424286022358</v>
+        <v>0.01407411324256087</v>
       </c>
       <c r="E166" t="n">
-        <v>2.003102140981433e-06</v>
+        <v>0.004381229550771065</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00158721787005321</v>
+        <v>3.362522356889476e-06</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.001447065374538235</v>
       </c>
     </row>
     <row r="167">
@@ -4768,17 +5268,20 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.1173845745871916</v>
+        <v>0.05515498302309776</v>
       </c>
       <c r="E167" t="n">
-        <v>0.002155384462090388</v>
+        <v>5.456727859910416e-29</v>
       </c>
       <c r="F167" t="n">
-        <v>0.07422758539102986</v>
+        <v>0.0009101995113456092</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.1550938270091956</v>
       </c>
     </row>
     <row r="168">
@@ -4794,17 +5297,20 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.1004076688732251</v>
+        <v>0.1128195274785991</v>
       </c>
       <c r="E168" t="n">
-        <v>0.001470735172135794</v>
+        <v>3.311485805429525e-116</v>
       </c>
       <c r="F168" t="n">
-        <v>0.09353939888277588</v>
+        <v>0.001679932322610849</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.08271933543655148</v>
       </c>
     </row>
     <row r="169">
@@ -4820,17 +5326,20 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.1014799692007761</v>
+        <v>0.1081883491193077</v>
       </c>
       <c r="E169" t="n">
-        <v>0.001419260799226501</v>
+        <v>6.050940228970067e-107</v>
       </c>
       <c r="F169" t="n">
-        <v>0.08689974601983637</v>
+        <v>0.001528023542341629</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.08268375866913687</v>
       </c>
     </row>
     <row r="170">
@@ -4846,17 +5355,20 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.1556979003904307</v>
+        <v>0.1012603563120729</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0001392225201619838</v>
+        <v>7.366636490225485e-94</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.002453117591441289</v>
+        <v>0.0001499911528270575</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-0.002256904925561123</v>
       </c>
     </row>
     <row r="171">
@@ -4872,17 +5384,20 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.006224181502416992</v>
+        <v>0.0445194768665516</v>
       </c>
       <c r="E171" t="n">
-        <v>8.683646358776734e-05</v>
+        <v>7.513379203344095e-20</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7053940826629366</v>
+        <v>0.0005577252163265229</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.6758608655959299</v>
       </c>
     </row>
     <row r="172">
@@ -4898,17 +5413,20 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.05138046698037064</v>
+        <v>-0.06298615467167655</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.0004829061825815303</v>
+        <v>3.985073212273231e-38</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1855367779865457</v>
+        <v>-0.0005812191127493139</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.1957365655373552</v>
       </c>
     </row>
     <row r="173">
@@ -4924,17 +5442,20 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.07453461013628973</v>
+        <v>-0.02426424084982221</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.0001051284958426148</v>
+        <v>6.725487469614032e-07</v>
       </c>
       <c r="F173" t="n">
-        <v>0.01609050475954699</v>
+        <v>-3.501249030695209e-05</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.01091765142825484</v>
       </c>
     </row>
     <row r="174">
@@ -4950,17 +5471,20 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.04021278139454654</v>
+        <v>-0.01382261281599175</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0002764479884405902</v>
+        <v>0.004647794917270559</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9185337938436053</v>
+        <v>-9.673349700356368e-05</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.9401370282168261</v>
       </c>
     </row>
     <row r="175">
@@ -4976,17 +5500,20 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.01569347420523348</v>
+        <v>-0.01758262270432456</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0001442017412644499</v>
+        <v>0.0003175663810932679</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9425702679472936</v>
+        <v>-0.0001411663509927507</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.9626158347576391</v>
       </c>
     </row>
     <row r="176">
@@ -5002,17 +5529,20 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.1301729917748315</v>
+        <v>0.09381688875653811</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0004324707073739314</v>
+        <v>1.342221151841852e-82</v>
       </c>
       <c r="F176" t="n">
-        <v>0.007537041477966543</v>
+        <v>0.0003831452616459463</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0133973283939631</v>
       </c>
     </row>
     <row r="177">
@@ -5028,17 +5558,20 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-0.03008425795097818</v>
+        <v>0.007014677748624677</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.0006755487217468067</v>
+        <v>0.1525327961312463</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1883268766285554</v>
+        <v>0.001409481021561196</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.08739316590735027</v>
       </c>
     </row>
     <row r="178">
@@ -5054,17 +5587,20 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.08644385330130278</v>
+        <v>-0.02058097444330483</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.0002796735410586328</v>
+        <v>0.0001595021113922174</v>
       </c>
       <c r="F178" t="n">
-        <v>0.04863069096716428</v>
+        <v>-5.765321052559998e-05</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.03148959779688137</v>
       </c>
     </row>
     <row r="179">
@@ -5080,17 +5616,20 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.209622417644632</v>
+        <v>-0.2163127209524368</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.004275556254732488</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6645687563735254</v>
+        <v>-0.004319656947607203</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.6349940960506709</v>
       </c>
     </row>
     <row r="180">
@@ -5106,17 +5645,20 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1634054607208784</v>
+        <v>-0.09631957404303738</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.004107981344388607</v>
+        <v>2.631610731615949e-86</v>
       </c>
       <c r="F180" t="n">
-        <v>0.6292726211815556</v>
+        <v>-0.002485649613939467</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.5165941895200669</v>
       </c>
     </row>
     <row r="181">
@@ -5132,17 +5674,20 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.08506920088634114</v>
+        <v>-0.05982273301150256</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.0004060330840263758</v>
+        <v>3.61609026883113e-34</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05331464416349209</v>
+        <v>-0.0004160797410388574</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.06305112455192868</v>
       </c>
     </row>
     <row r="182">
@@ -5158,17 +5703,20 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.1705427215969938</v>
+        <v>-0.1900807199387182</v>
       </c>
       <c r="E182" t="n">
-        <v>-0.008083429760686206</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1.520984777892016</v>
+        <v>-0.008917456672935193</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.558707237485523</v>
       </c>
     </row>
     <row r="183">
@@ -5184,17 +5732,20 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.00688305919451535</v>
+        <v>-0.005222599858310986</v>
       </c>
       <c r="E183" t="n">
-        <v>7.170113804830203e-05</v>
+        <v>0.2873451084969398</v>
       </c>
       <c r="F183" t="n">
-        <v>0.01375269077011057</v>
+        <v>-5.731485954714759e-05</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.02226876492268793</v>
       </c>
     </row>
     <row r="184">
@@ -5210,17 +5761,20 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.01801259853827892</v>
+        <v>0.01368444110147543</v>
       </c>
       <c r="E184" t="n">
-        <v>3.471168396001054e-05</v>
+        <v>0.005304320619702704</v>
       </c>
       <c r="F184" t="n">
-        <v>0.01263627130455665</v>
+        <v>0.002552156089814985</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-0.1277644882257251</v>
       </c>
     </row>
     <row r="185">
@@ -5236,17 +5790,20 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.3284503313096797</v>
+        <v>-0.3422273190709432</v>
       </c>
       <c r="E185" t="n">
-        <v>-0.002368648647134721</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.2337474215688812</v>
+        <v>-0.002299720363773656</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.2217716722321493</v>
       </c>
     </row>
     <row r="186">
@@ -5262,17 +5819,20 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.07558105820826953</v>
+        <v>-0.08347875486520195</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.002285617389368174</v>
+        <v>5.680721077356771e-65</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5716711357114515</v>
+        <v>-0.002566847545641196</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.6059935835911535</v>
       </c>
     </row>
     <row r="187">
@@ -5288,17 +5848,20 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.2166241479522065</v>
+        <v>-0.1939249019182696</v>
       </c>
       <c r="E187" t="n">
-        <v>-0.01375089172181863</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>2.355022808639417</v>
+        <v>-0.01220358354560361</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.227743555089479</v>
       </c>
     </row>
     <row r="188">
@@ -5314,17 +5877,20 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.0871912753871962</v>
+        <v>-0.1085782300565969</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.0009981154112310598</v>
+        <v>4.757509307469215e-109</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1618613287016998</v>
+        <v>-0.001261096737143653</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.1784613558403053</v>
       </c>
     </row>
     <row r="189">
@@ -5340,17 +5906,20 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.05198520262452386</v>
+        <v>-0.07474330883622911</v>
       </c>
       <c r="E189" t="n">
-        <v>-0.0002298097410926491</v>
+        <v>9.212331896875385e-54</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0837258659534077</v>
+        <v>-0.0003813693838872948</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.09472512065532006</v>
       </c>
     </row>
     <row r="190">
@@ -5366,17 +5935,20 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-0.05296302852774525</v>
+        <v>0.02442090225268396</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.0005843159807608946</v>
+        <v>4.717260090580385e-07</v>
       </c>
       <c r="F190" t="n">
-        <v>0.282147009276265</v>
+        <v>0.000279642694336543</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.2280025006003426</v>
       </c>
     </row>
     <row r="191">
@@ -5392,17 +5964,20 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.06578225887346884</v>
+        <v>-0.02696298020983538</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0008434244126287806</v>
+        <v>2.666641388718984e-08</v>
       </c>
       <c r="F191" t="n">
-        <v>0.630302866222935</v>
+        <v>-0.0003576950316725313</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.705675574408454</v>
       </c>
     </row>
     <row r="192">
@@ -5418,17 +5993,20 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.2293269380970813</v>
+        <v>-0.1443776114639262</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.003052387632564993</v>
+        <v>7.046417594806352e-197</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9077259744373831</v>
+        <v>-0.001863934412652477</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.8239890264940067</v>
       </c>
     </row>
     <row r="193">
@@ -5444,17 +6022,20 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.09974776593015029</v>
+        <v>-0.05147234912379973</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.001707058425524946</v>
+        <v>2.63414953886184e-26</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7641366434457276</v>
+        <v>-0.0008468812417419023</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.7075827400014643</v>
       </c>
     </row>
     <row r="194">
@@ -5470,17 +6051,20 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.1243787872329302</v>
+        <v>0.07116952833446713</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0003651691377930913</v>
+        <v>3.481662291372483e-47</v>
       </c>
       <c r="F194" t="n">
-        <v>0.01114948647807981</v>
+        <v>0.0001792236755023479</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.02313075763772254</v>
       </c>
     </row>
     <row r="195">
@@ -5496,17 +6080,20 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1046256363833205</v>
+        <v>0.124174421584231</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0002096037849397058</v>
+        <v>1.525458962299883e-140</v>
       </c>
       <c r="F195" t="n">
-        <v>0.01465842141397924</v>
+        <v>0.0002565902388949641</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.01211916599617688</v>
       </c>
     </row>
     <row r="196">
@@ -5522,17 +6109,20 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.1033893522979613</v>
+        <v>0.04501836539756975</v>
       </c>
       <c r="E196" t="n">
-        <v>5.923705011976692e-05</v>
+        <v>7.575693892289842e-20</v>
       </c>
       <c r="F196" t="n">
-        <v>0.003544712398489649</v>
+        <v>2.606461284137277e-05</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.005976016024914771</v>
       </c>
     </row>
     <row r="197">
@@ -5548,17 +6138,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.01829800501256608</v>
+        <v>-0.0196180908017097</v>
       </c>
       <c r="E197" t="n">
-        <v>0.001879880091725083</v>
+        <v>0.001054281391465517</v>
       </c>
       <c r="F197" t="n">
-        <v>5.778428619460396</v>
+        <v>-0.001999455583985751</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6.11404239237836</v>
       </c>
     </row>
     <row r="198">
@@ -5574,17 +6167,20 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.09878921714486721</v>
+        <v>0.0599867379763609</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1867250087929921</v>
+        <v>6.247826639846604e-25</v>
       </c>
       <c r="F198" t="n">
-        <v>42.60990950793477</v>
+        <v>0.1055002330665006</v>
+      </c>
+      <c r="G198" t="n">
+        <v>47.60343637075585</v>
       </c>
     </row>
     <row r="199">
@@ -5600,17 +6196,20 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.07434183144537203</v>
+        <v>-0.07331487162801192</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.2997086581416812</v>
+        <v>3.94604700425354e-37</v>
       </c>
       <c r="F199" t="n">
-        <v>213.1182840156521</v>
+        <v>-0.2927548795248368</v>
+      </c>
+      <c r="G199" t="n">
+        <v>209.294138005052</v>
       </c>
     </row>
     <row r="200">
@@ -5626,17 +6225,20 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.02470641131005737</v>
+        <v>0.007791188355816713</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.01012368354045366</v>
+        <v>0.1747823349110753</v>
       </c>
       <c r="F200" t="n">
-        <v>3.903702889740236</v>
+        <v>0.003151441532048238</v>
+      </c>
+      <c r="G200" t="n">
+        <v>3.252227748348547</v>
       </c>
     </row>
     <row r="201">
@@ -5652,17 +6254,20 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.252566039868168</v>
+        <v>0.2299447142713757</v>
       </c>
       <c r="E201" t="n">
-        <v>0.01229147641808041</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.2497147290030363</v>
+        <v>0.01153968575193935</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.356064110660431</v>
       </c>
     </row>
   </sheetData>
